--- a/Sonia_IndiaLab_English_20200629.xlsx
+++ b/Sonia_IndiaLab_English_20200629.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elaya\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{682A0B32-5984-4A0E-89A7-15F7C3780CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="App_Issue" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$H$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'App placement (necessary)'!$A$1:$E$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'アプリ配置 (必須)'!$A$1:$D$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'App placement (necessary)'!$1:$1</definedName>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="359">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1484,9 +1478,6 @@
     <t>Bharathi</t>
   </si>
   <si>
-    <t xml:space="preserve">no ini found(from web.config) </t>
-  </si>
-  <si>
     <t>Vijay</t>
   </si>
   <si>
@@ -1604,28 +1595,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>V_ICDT_DTL table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> is missing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>Q_DTL, V_cls_022</t>
     </r>
     <r>
@@ -1685,10 +1654,6 @@
     </r>
   </si>
   <si>
-    <t>Implemented missing tables and sp what they
-provided. But Need functional knowledge for move furthermore</t>
-  </si>
-  <si>
     <t>Sabeena</t>
   </si>
   <si>
@@ -1777,12 +1742,184 @@
       <t>.Import Document Need tocheck functionality</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">V_ICDT_DTL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>table is missing</t>
+    </r>
+  </si>
+  <si>
+    <t>Implemented by given missing tables and sp.  But Need functional knowledge for move furthermore.Because of I don't know which file is transferred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The following tables are missing:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>section_mtr,line_mtr,cls_mtr,sub_cls_mtr,CX_WRN_SUB,CX_WRN_MAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+The following Sps are missing:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sp_err_list,sp_soukatsu_list,sp_soukatsu_list_2,
+sp_anshin_list,sp_anshin_list_2,sp_CX_list,
+sp_err_list2,sp_Shop_mtr,sp_vdr_mtr,
+sp_item_mtr,sp_section_mtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+The following file is missing:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Homac長期安心保証データ.xls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>bicdb.ini</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Give the appropriate file for this folder. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C:\ftproot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The below tables are missing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">REPAIR_FIN,RCV_ERR,REPAIR_DATA,Q_DTL,Q_DATA,Q_MASTER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+The below sps are missing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sp_mikan,sp_kan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">no ini found(DB details from 
+web.config) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1979,7 +2116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2076,9 +2213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2088,25 +2222,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2178,7 +2312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2210,27 +2344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2262,24 +2378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2455,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2469,15 +2567,15 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2489,8 +2587,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2503,48 +2601,48 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2555,8 +2653,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -2567,8 +2665,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -2579,8 +2677,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -2591,8 +2689,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -2603,8 +2701,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -2615,8 +2713,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2629,8 +2727,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2641,8 +2739,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2653,8 +2751,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2665,8 +2763,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2677,8 +2775,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2689,8 +2787,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -2701,8 +2799,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2713,8 +2811,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -2725,8 +2823,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2737,8 +2835,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="34"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2847,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:4">
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2761,8 +2859,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2773,8 +2871,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2785,8 +2883,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2797,8 +2895,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -2809,8 +2907,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2821,8 +2919,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2833,8 +2931,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -2845,8 +2943,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2857,8 +2955,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2869,8 +2967,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="34"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2881,8 +2979,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:4">
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -2893,8 +2991,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2905,8 +3003,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2917,8 +3015,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3027,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="34"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -2941,8 +3039,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -2953,8 +3051,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="34"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -2965,8 +3063,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -2977,8 +3075,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="34"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -2989,8 +3087,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="34"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3001,8 +3099,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -3013,8 +3111,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -3025,8 +3123,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -3037,8 +3135,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -3049,8 +3147,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3063,8 +3161,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3075,8 +3173,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="34"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3087,8 +3185,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="34"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -3099,8 +3197,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="34"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -3111,8 +3209,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="34"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3123,8 +3221,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="34"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -3135,8 +3233,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="34"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -3147,8 +3245,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -3159,8 +3257,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3171,8 +3269,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -3183,8 +3281,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:4">
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3195,8 +3293,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3209,8 +3307,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -3221,8 +3319,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:4">
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3233,8 +3331,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="35" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3247,8 +3345,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:4">
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -3259,8 +3357,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -3271,8 +3369,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="35" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3285,28 +3383,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="34"/>
+      <c r="B68" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
+    <row r="69" spans="1:4">
+      <c r="A69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:4">
+      <c r="A70" s="34"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -3317,28 +3415,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
+    <row r="72" spans="1:4">
+      <c r="A72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:4">
+      <c r="A73" s="34"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -3349,8 +3447,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -3361,8 +3459,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="35" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3375,48 +3473,48 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
-      <c r="B76" s="38" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="34"/>
+      <c r="B76" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
+    <row r="77" spans="1:4">
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="34"/>
+      <c r="B78" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
+    <row r="79" spans="1:4">
+      <c r="A79" s="34"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:4">
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -3427,8 +3525,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:4">
+      <c r="A81" s="34"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -3439,8 +3537,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="35" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3453,8 +3551,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+    <row r="83" spans="1:4">
+      <c r="A83" s="34"/>
       <c r="B83" s="36" t="s">
         <v>18</v>
       </c>
@@ -3465,16 +3563,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+    <row r="84" spans="1:4">
+      <c r="A84" s="34"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="34"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -3485,8 +3583,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="35"/>
+    <row r="86" spans="1:4">
+      <c r="A86" s="34"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -3497,19 +3595,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -3518,14 +3618,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -3538,7 +3636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3552,16 +3650,16 @@
       <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -3574,8 +3672,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3589,12 +3687,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -3602,21 +3700,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="35"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -3624,17 +3722,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -3646,8 +3744,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -3661,8 +3759,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -3676,8 +3774,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -3689,8 +3787,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -3702,8 +3800,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -3715,8 +3813,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3730,8 +3828,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -3743,8 +3841,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -3756,8 +3854,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -3769,8 +3867,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -3782,8 +3880,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -3795,8 +3893,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -3808,8 +3906,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -3821,8 +3919,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -3834,8 +3932,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -3847,8 +3945,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="34"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -3860,8 +3958,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -3873,8 +3971,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -3886,8 +3984,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -3899,8 +3997,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -3912,8 +4010,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -3925,8 +4023,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -3938,8 +4036,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -3951,8 +4049,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -3964,8 +4062,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:5">
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -3977,8 +4075,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -3990,8 +4088,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="34"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -4003,8 +4101,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -4016,8 +4114,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -4029,8 +4127,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -4042,8 +4140,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="34"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -4055,8 +4153,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="34"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -4068,8 +4166,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="34"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -4081,8 +4179,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="34"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -4094,8 +4192,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -4109,8 +4207,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="34"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -4124,8 +4222,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="34"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -4139,8 +4237,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -4152,8 +4250,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -4165,8 +4263,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -4178,8 +4276,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:5">
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -4191,8 +4289,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4206,8 +4304,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="34"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -4219,8 +4317,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="34"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -4232,8 +4330,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:5">
+      <c r="A52" s="34"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -4245,8 +4343,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:5">
+      <c r="A53" s="34"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -4258,8 +4356,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="34"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -4271,8 +4369,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="34"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -4284,8 +4382,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:5">
+      <c r="A56" s="34"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -4297,8 +4395,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -4312,8 +4410,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -4325,8 +4423,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:5">
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -4340,8 +4438,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:5">
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -4353,8 +4451,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="34" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4368,8 +4466,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:5">
+      <c r="A62" s="34"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -4381,8 +4479,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:5">
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -4394,8 +4492,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="35" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="34" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4409,8 +4507,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:5">
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -4422,8 +4520,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:5">
+      <c r="A66" s="34"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -4435,8 +4533,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="35" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4450,12 +4548,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
-      <c r="B68" s="39" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="34"/>
+      <c r="B68" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4463,17 +4561,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="38"/>
+    <row r="69" spans="1:5">
+      <c r="A69" s="34"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:5">
+      <c r="A70" s="34"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -4485,12 +4583,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -4498,17 +4596,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
+    <row r="72" spans="1:5">
+      <c r="A72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:5">
+      <c r="A73" s="34"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -4520,8 +4618,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:5">
+      <c r="A74" s="34"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -4533,8 +4631,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="35" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4548,12 +4646,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
-      <c r="B76" s="39" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="34"/>
+      <c r="B76" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -4561,21 +4659,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="38"/>
+    <row r="77" spans="1:5">
+      <c r="A77" s="34"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="34"/>
+      <c r="B78" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -4583,17 +4681,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
+    <row r="79" spans="1:5">
+      <c r="A79" s="34"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -4605,8 +4703,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:5">
+      <c r="A81" s="34"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -4618,8 +4716,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="35" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4633,8 +4731,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+    <row r="83" spans="1:5">
+      <c r="A83" s="34"/>
       <c r="B83" s="36" t="s">
         <v>189</v>
       </c>
@@ -4646,8 +4744,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+    <row r="84" spans="1:5">
+      <c r="A84" s="34"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
       <c r="D84" s="12"/>
@@ -4655,8 +4753,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+    <row r="85" spans="1:5">
+      <c r="A85" s="34"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -4668,8 +4766,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="35"/>
+    <row r="86" spans="1:5">
+      <c r="A86" s="34"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -4681,35 +4779,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4726,6 +4818,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -4737,27 +4835,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -4766,8 +4864,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4777,8 +4875,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -4786,8 +4884,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -4795,8 +4893,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:3" ht="78.75">
+      <c r="A7" s="42"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -4804,7 +4902,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -4813,7 +4911,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -4824,7 +4922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -4835,7 +4933,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -4857,27 +4955,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15232">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4902,8 +5000,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:15232" ht="27">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4925,8 +5023,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:15232" ht="54">
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -4946,8 +5044,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:15232">
+      <c r="A4" s="34"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -4959,8 +5057,8 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:15232">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -4980,8 +5078,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:15232">
+      <c r="A6" s="34"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4993,8 +5091,8 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:15232">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -5012,8 +5110,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:15232" ht="27">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -5031,8 +5129,8 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:15232">
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -5050,8 +5148,8 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:15232">
+      <c r="A10" s="34"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -5067,8 +5165,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:15232">
+      <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -5084,8 +5182,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:15232">
+      <c r="A12" s="34"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -5101,7 +5199,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15232">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5111,7 +5209,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15232">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5121,8 +5219,8 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:15232" s="15" customFormat="1">
+      <c r="A15" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -20365,8 +20463,8 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:15232">
+      <c r="A16" s="34"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -20386,8 +20484,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -20407,8 +20505,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="34"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -20428,8 +20526,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:9" s="18" customFormat="1">
+      <c r="A19" s="34"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -20447,8 +20545,8 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:9" s="18" customFormat="1">
+      <c r="A20" s="34"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -20468,8 +20566,8 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -20489,8 +20587,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A22" s="34"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -20510,8 +20608,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:9" s="18" customFormat="1">
+      <c r="A23" s="34"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -20531,8 +20629,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -20552,8 +20650,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -20573,8 +20671,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A26" s="34"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -20594,8 +20692,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A27" s="34"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -20615,8 +20713,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:9" s="18" customFormat="1">
+      <c r="A28" s="34"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -20634,8 +20732,8 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -20655,8 +20753,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="34"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -20676,8 +20774,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A31" s="34"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -20697,8 +20795,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -20718,8 +20816,8 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -20739,8 +20837,8 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A34" s="34"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -20760,8 +20858,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A35" s="34"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -20781,8 +20879,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A36" s="34"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -20802,8 +20900,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A37" s="34"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -20823,8 +20921,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A38" s="34"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -20846,8 +20944,8 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A39" s="34"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -20869,8 +20967,8 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A40" s="34"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -20892,8 +20990,8 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A41" s="34"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -20915,8 +21013,8 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A42" s="34"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -20938,8 +21036,8 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A43" s="34"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -20959,8 +21057,8 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:9" s="18" customFormat="1">
+      <c r="A44" s="34"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -20978,8 +21076,8 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:9" s="18" customFormat="1">
+      <c r="A45" s="34"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -20997,8 +21095,8 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A46" s="34"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -21016,8 +21114,8 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:9" s="18" customFormat="1">
+      <c r="A47" s="34"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -21033,8 +21131,8 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:9" s="18" customFormat="1">
+      <c r="A48" s="34"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -21050,8 +21148,8 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:9" s="18" customFormat="1">
+      <c r="A49" s="34"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -21067,8 +21165,8 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:9" s="18" customFormat="1">
+      <c r="A50" s="34"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -21084,7 +21182,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21095,7 +21193,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21106,8 +21204,8 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+    <row r="53" spans="1:9" s="18" customFormat="1">
+      <c r="A53" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -21125,8 +21223,8 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:9" s="18" customFormat="1">
+      <c r="A54" s="34"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -21142,8 +21240,8 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A55" s="34"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -21163,8 +21261,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:9" s="18" customFormat="1">
+      <c r="A56" s="34"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -21180,8 +21278,8 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:9" s="18" customFormat="1">
+      <c r="A57" s="34"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -21197,8 +21295,8 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:9" s="18" customFormat="1">
+      <c r="A58" s="34"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -21214,8 +21312,8 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:9" s="18" customFormat="1">
+      <c r="A59" s="34"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -21231,8 +21329,8 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:9" s="18" customFormat="1">
+      <c r="A60" s="34"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -21248,8 +21346,8 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:9" s="18" customFormat="1">
+      <c r="A61" s="34"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -21267,8 +21365,8 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:9" s="18" customFormat="1">
+      <c r="A62" s="34"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -21284,8 +21382,8 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:9" s="18" customFormat="1">
+      <c r="A63" s="34"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -21303,8 +21401,8 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:9" s="18" customFormat="1">
+      <c r="A64" s="34"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -21320,7 +21418,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="18" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -21331,7 +21429,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -21342,8 +21440,8 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A67" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -21365,8 +21463,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A68" s="44"/>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A68" s="43"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -21386,8 +21484,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
+    <row r="69" spans="1:9" s="18" customFormat="1">
+      <c r="A69" s="43"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -21403,7 +21501,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -21414,7 +21512,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="18" customFormat="1">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -21425,8 +21523,8 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A72" s="44" t="s">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A72" s="43" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -21448,8 +21546,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A73" s="43"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -21469,8 +21567,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
+    <row r="74" spans="1:9" s="18" customFormat="1">
+      <c r="A74" s="43"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -21486,7 +21584,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="18" customFormat="1">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -21497,7 +21595,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="18" customFormat="1">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -21508,8 +21606,8 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A77" s="35" t="s">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A77" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -21531,8 +21629,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A78" s="34"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -21552,8 +21650,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
+    <row r="79" spans="1:9" s="18" customFormat="1">
+      <c r="A79" s="34"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -21565,8 +21663,8 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:9" s="18" customFormat="1">
+      <c r="A80" s="34"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -21586,8 +21684,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:9" s="18" customFormat="1">
+      <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -21607,8 +21705,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+    <row r="82" spans="1:9" s="18" customFormat="1">
+      <c r="A82" s="34"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -21620,8 +21718,8 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A83" s="34"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -21641,8 +21739,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+    <row r="84" spans="1:9" s="18" customFormat="1">
+      <c r="A84" s="34"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -21658,7 +21756,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="18" customFormat="1">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -21669,7 +21767,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="18" customFormat="1">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -21680,8 +21778,8 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A87" s="35" t="s">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A87" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -21703,8 +21801,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A88" s="34"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -21724,8 +21822,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+    <row r="89" spans="1:9" s="18" customFormat="1">
+      <c r="A89" s="34"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -21737,8 +21835,8 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A90" s="34"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -21758,8 +21856,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+    <row r="91" spans="1:9" s="18" customFormat="1">
+      <c r="A91" s="34"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -21771,8 +21869,8 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A92" s="35"/>
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A92" s="34"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -21792,8 +21890,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="35"/>
+    <row r="93" spans="1:9" s="18" customFormat="1">
+      <c r="A93" s="34"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -21809,7 +21907,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -21820,7 +21918,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -21831,8 +21929,8 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="35" t="s">
+    <row r="96" spans="1:9" s="18" customFormat="1">
+      <c r="A96" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -21854,8 +21952,8 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A97" s="35"/>
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A97" s="34"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -21875,8 +21973,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="35"/>
+    <row r="98" spans="1:9" s="18" customFormat="1">
+      <c r="A98" s="34"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -21888,8 +21986,8 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A99" s="35"/>
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -21909,8 +22007,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="35"/>
+    <row r="100" spans="1:9" s="18" customFormat="1">
+      <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -21926,7 +22024,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="18" customFormat="1">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -21937,7 +22035,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="18" customFormat="1">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -21948,7 +22046,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="18" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -21959,7 +22057,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="18" customFormat="1">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -21970,7 +22068,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="18" customFormat="1">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -21981,7 +22079,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="18" customFormat="1">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -21990,7 +22088,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="18" customFormat="1">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -21999,7 +22097,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="18" customFormat="1">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22008,7 +22106,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="18" customFormat="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22018,7 +22116,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22028,7 +22126,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22038,7 +22136,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="18" customFormat="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22048,7 +22146,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="18" customFormat="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22058,7 +22156,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="18" customFormat="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22068,7 +22166,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="18" customFormat="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22078,7 +22176,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="18" customFormat="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22088,7 +22186,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="18" customFormat="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22098,7 +22196,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="18" customFormat="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22108,7 +22206,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="18" customFormat="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22118,7 +22216,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="18" customFormat="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22128,7 +22226,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="18" customFormat="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22138,7 +22236,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="18" customFormat="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22148,7 +22246,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="18" customFormat="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22158,7 +22256,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="18" customFormat="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22168,7 +22266,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="18" customFormat="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22178,7 +22276,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="18" customFormat="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22188,7 +22286,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="18" customFormat="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22198,7 +22296,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="18" customFormat="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22208,7 +22306,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="18" customFormat="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22218,7 +22316,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="18" customFormat="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22228,7 +22326,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="18" customFormat="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -22238,7 +22336,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="18" customFormat="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -22248,7 +22346,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="18" customFormat="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -22258,7 +22356,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="18" customFormat="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -22268,7 +22366,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="18" customFormat="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -22278,7 +22376,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="18" customFormat="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -22288,7 +22386,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="18" customFormat="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -22298,7 +22396,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="18" customFormat="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -22308,7 +22406,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="18" customFormat="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -22318,7 +22416,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="18" customFormat="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -22328,7 +22426,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="18" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -22338,7 +22436,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="18" customFormat="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -22365,27 +22463,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -22406,14 +22504,14 @@
         <v>320</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -22422,30 +22520,54 @@
       <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
+      <c r="D2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81">
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="D3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="34"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
@@ -22456,81 +22578,95 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="B5" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>290</v>
+        <v>182</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>166</v>
-      </c>
+      <c r="G5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>302</v>
@@ -22542,205 +22678,205 @@
         <v>295</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="34"/>
+      <c r="B10" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="34"/>
       <c r="B12" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="34"/>
       <c r="B13" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="34"/>
       <c r="B14" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="34"/>
       <c r="B15" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="34"/>
       <c r="B16" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>302</v>
@@ -22752,148 +22888,148 @@
         <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I17" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="34"/>
+      <c r="B18" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="34"/>
+      <c r="B19" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="34"/>
+      <c r="B20" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="34"/>
+      <c r="B21" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="34"/>
       <c r="B22" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>302</v>
@@ -22905,22 +23041,22 @@
         <v>295</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27">
+      <c r="A23" s="34"/>
       <c r="B23" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>302</v>
@@ -22932,152 +23068,152 @@
         <v>295</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I24" s="21" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="I24" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>349</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+        <v>336</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="34"/>
       <c r="B26" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="34"/>
+      <c r="B28" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
       </c>
@@ -23085,26 +23221,26 @@
         <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>301</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="34"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
       </c>
@@ -23112,53 +23248,53 @@
         <v>143</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>301</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="34"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
       </c>
@@ -23166,53 +23302,53 @@
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="34"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
       </c>
@@ -23220,53 +23356,53 @@
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="34"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="34"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
       </c>
@@ -23274,26 +23410,26 @@
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>309</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="34"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
       </c>
@@ -23301,53 +23437,53 @@
         <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="34"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="34"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -23355,106 +23491,94 @@
         <v>42</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27">
+      <c r="A40" s="34"/>
       <c r="B40" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>305</v>
+        <v>142</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>304</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="B41" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>322</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>175</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="34"/>
       <c r="B42" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="34"/>
       <c r="B43" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>91</v>
+        <v>189</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -23463,13 +23587,13 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:9">
+      <c r="A44" s="34"/>
       <c r="B44" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>92</v>
+        <v>199</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -23478,13 +23602,13 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:9">
+      <c r="A45" s="34"/>
       <c r="B45" s="21" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -23493,13 +23617,13 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:9">
+      <c r="A46" s="34"/>
       <c r="B46" s="21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -23508,13 +23632,13 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="34"/>
       <c r="B47" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -23523,13 +23647,13 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:9">
+      <c r="A48" s="34"/>
       <c r="B48" s="21" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -23538,84 +23662,96 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:9">
+      <c r="A49" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="B49" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
-        <v>176</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="34"/>
       <c r="B50" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
-      <c r="B51" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
-        <v>168</v>
-      </c>
+      <c r="I51" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="34"/>
       <c r="B52" s="21" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>314</v>
@@ -23627,49 +23763,39 @@
         <v>103</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+        <v>327</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="34" t="s">
+        <v>169</v>
+      </c>
       <c r="B53" s="21" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
-        <v>169</v>
-      </c>
+    <row r="54" spans="1:9">
+      <c r="A54" s="34"/>
       <c r="B54" s="21" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -23680,13 +23806,13 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:9">
+      <c r="A55" s="34"/>
       <c r="B55" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -23697,13 +23823,13 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:9">
+      <c r="A56" s="34"/>
       <c r="B56" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -23714,13 +23840,13 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:9">
+      <c r="A57" s="34"/>
       <c r="B57" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -23731,59 +23857,69 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:9" ht="27">
+      <c r="A58" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="B58" s="21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G58" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A59" s="35" t="s">
-        <v>106</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="40.5">
+      <c r="A59" s="34"/>
       <c r="B59" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>322</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I59" s="21" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:9">
+      <c r="A60" s="34"/>
       <c r="B60" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>319</v>
@@ -23798,75 +23934,75 @@
         <v>322</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
+        <v>325</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="34"/>
       <c r="B61" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>322</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="27">
+      <c r="A62" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="B62" s="21" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>322</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A63" s="35" t="s">
-        <v>104</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="27">
+      <c r="A63" s="34"/>
       <c r="B63" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>315</v>
@@ -23881,19 +24017,19 @@
         <v>322</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="162">
+      <c r="A64" s="34"/>
       <c r="B64" s="21" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>315</v>
@@ -23908,42 +24044,23 @@
         <v>322</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
-      <c r="B65" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I65" s="1"/>
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:H64"/>
   <mergeCells count="8">
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23951,21 +24068,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -23976,7 +24093,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -23987,8 +24104,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="44" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -23998,8 +24115,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -24007,7 +24124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -24018,7 +24135,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -24029,7 +24146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -24040,7 +24157,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -24051,7 +24168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -24062,7 +24179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -24073,8 +24190,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="38" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24084,8 +24201,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="39"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -24093,7 +24210,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -24104,7 +24221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -24115,7 +24232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>

--- a/Sonia_IndiaLab_English_20200629.xlsx
+++ b/Sonia_IndiaLab_English_20200629.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F462E5E3-3DE3-4ADA-A508-3ACEE412721A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E3746A-BB9A-4BF7-A351-6B73B22061FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="416">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1865,12 +1865,188 @@
   <si>
     <t>wrn_mtr</t>
   </si>
+  <si>
+    <t>MrMAX.ini</t>
+  </si>
+  <si>
+    <t>MrMAX_Wrn</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>ICDT_DATA</t>
+  </si>
+  <si>
+    <t>INQUIRY_DATA</t>
+  </si>
+  <si>
+    <t>EMPL</t>
+  </si>
+  <si>
+    <t>M_category</t>
+  </si>
+  <si>
+    <t>M08_KBN_CAT</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>STTS_F_UPD</t>
+  </si>
+  <si>
+    <t>V_cls_003</t>
+  </si>
+  <si>
+    <t>V_cls_006</t>
+  </si>
+  <si>
+    <t>V_cls_014</t>
+  </si>
+  <si>
+    <t>V_cls_015</t>
+  </si>
+  <si>
+    <t>V_cls_016</t>
+  </si>
+  <si>
+    <t>V_cls_017</t>
+  </si>
+  <si>
+    <t>V_cls_018</t>
+  </si>
+  <si>
+    <t>V_cls_019</t>
+  </si>
+  <si>
+    <t>V_cls_020</t>
+  </si>
+  <si>
+    <t>V_cls_021</t>
+  </si>
+  <si>
+    <t>V_ICDT_DTL</t>
+  </si>
+  <si>
+    <t>WRN_DATA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">02_売上データ, 01_取込データ, V_MAX_SEQ, W01_総括表, W02_明細, V_Wrn_N30, M08_KBN_CAT, V_Wrn_E30, WRN_DATA, M07_PB_ﾏｯﾁﾝｸﾞ, M09_KBN_ITEM, CLS_CODE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tables missing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">and  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">sp_import01, sp_rb_chk, sp_err_chk_04, sp_wrn_chk, sp_wrn_chk_PB_1, sp_wrn_chk_PB_2, sp_err_chk_01, sp_err_chk_01_2, sp_err_chk_02, sp_err_chk_03, sp_err_chk_05, sp_err_list, sp_ok_list, sp_biz_list, sp_glist_glist, sp_glist_dtl_W, sp_glist_dtl, sp_glist_err, sp_glist_biz, sp_biz_list, sp_err_mnt01, sp_err_mnt02  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SP also missing</t>
+    </r>
+  </si>
+  <si>
+    <t>MrMAX_Wrn.ini</t>
+  </si>
+  <si>
+    <r>
+      <t>Working fine.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  We have create the table using codebehind</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Working fine.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> date issue so commented 1 line. We have create the table using codebehind</t>
+    </r>
+  </si>
+  <si>
+    <t>LAPTOP-12JOLGQH\MSSQL</t>
+  </si>
+  <si>
+    <t>Q_DTL</t>
+  </si>
+  <si>
+    <t>ICDT_DTL</t>
+  </si>
+  <si>
+    <t>STTS_F_UPD2</t>
+  </si>
+  <si>
+    <t>WRN_DATA_UPD</t>
+  </si>
+  <si>
+    <t>xa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1971,6 +2147,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2205,7 +2388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,39 +2494,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2357,10 +2507,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -2381,11 +2569,9 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2737,15 +2923,15 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2757,8 +2943,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2771,48 +2957,48 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2823,8 +3009,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -2835,8 +3021,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -2847,8 +3033,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -2859,8 +3045,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -2871,8 +3057,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -2883,8 +3069,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2897,8 +3083,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2909,8 +3095,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2921,8 +3107,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2933,8 +3119,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2945,8 +3131,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2957,8 +3143,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -2969,8 +3155,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2981,8 +3167,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -2993,8 +3179,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -3005,8 +3191,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3017,8 +3203,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3029,8 +3215,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3041,8 +3227,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -3053,8 +3239,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3065,8 +3251,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3077,8 +3263,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3089,8 +3275,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3101,8 +3287,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3113,8 +3299,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -3125,8 +3311,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -3137,8 +3323,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3149,8 +3335,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -3161,8 +3347,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3173,8 +3359,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3185,8 +3371,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -3197,8 +3383,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3209,8 +3395,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3221,8 +3407,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -3233,8 +3419,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3245,8 +3431,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -3257,8 +3443,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3269,8 +3455,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -3281,8 +3467,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -3293,8 +3479,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -3305,8 +3491,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -3317,8 +3503,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3331,8 +3517,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3343,8 +3529,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3355,8 +3541,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -3367,8 +3553,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -3379,8 +3565,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3391,8 +3577,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -3403,8 +3589,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -3415,8 +3601,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -3427,8 +3613,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3439,8 +3625,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -3451,8 +3637,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3463,8 +3649,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="35" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3477,8 +3663,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -3489,8 +3675,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3501,8 +3687,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3515,8 +3701,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -3527,8 +3713,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -3539,8 +3725,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="35" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3553,28 +3739,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
-      <c r="B68" s="36" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="45"/>
+      <c r="B68" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="45"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="45"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -3585,28 +3771,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
-      <c r="B71" s="36" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="45"/>
+      <c r="B71" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="45"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="45"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -3617,8 +3803,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="45"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -3629,8 +3815,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="35" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3643,48 +3829,48 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="35"/>
-      <c r="B76" s="36" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="45"/>
+      <c r="B76" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="35"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="45"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
-      <c r="B78" s="36" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="45"/>
+      <c r="B78" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="45"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="45"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -3695,8 +3881,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="45"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -3707,8 +3893,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="35" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3721,28 +3907,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="35"/>
-      <c r="B83" s="37" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="45"/>
+      <c r="B83" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="45"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="35"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="45"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -3753,8 +3939,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="35"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="45"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -3765,13 +3951,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -3780,20 +3980,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -3813,23 +3999,23 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I12" sqref="I12"/>
       <selection pane="topRight" activeCell="I12" sqref="I12"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -3842,8 +4028,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3857,12 +4043,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="45" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -3870,21 +4056,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -3892,17 +4078,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="35"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -3914,8 +4100,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -3929,8 +4115,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -3944,8 +4130,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -3957,8 +4143,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -3970,8 +4156,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -3983,8 +4169,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3998,8 +4184,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4011,8 +4197,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -4024,8 +4210,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -4037,8 +4223,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -4050,8 +4236,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -4063,8 +4249,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -4076,8 +4262,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -4089,8 +4275,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -4102,8 +4288,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -4115,8 +4301,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -4128,8 +4314,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -4141,8 +4327,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -4154,8 +4340,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -4167,8 +4353,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -4180,8 +4366,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -4193,8 +4379,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4206,8 +4392,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -4219,8 +4405,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -4232,8 +4418,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -4245,8 +4431,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -4258,8 +4444,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -4271,8 +4457,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -4284,8 +4470,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -4297,8 +4483,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -4310,8 +4496,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -4323,8 +4509,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -4336,8 +4522,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -4349,8 +4535,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -4362,8 +4548,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -4377,8 +4563,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -4392,8 +4578,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -4407,8 +4593,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -4420,8 +4606,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -4433,8 +4619,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -4446,8 +4632,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -4459,8 +4645,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="45" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4474,8 +4660,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -4487,8 +4673,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -4500,8 +4686,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -4513,8 +4699,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -4526,8 +4712,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -4539,8 +4725,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -4552,8 +4738,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -4565,8 +4751,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -4580,8 +4766,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -4593,8 +4779,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -4608,8 +4794,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -4621,8 +4807,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="35" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4636,8 +4822,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -4649,8 +4835,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -4662,8 +4848,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4677,8 +4863,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -4690,8 +4876,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -4703,8 +4889,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="35" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4718,12 +4904,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
-      <c r="B68" s="41" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="45"/>
+      <c r="B68" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4731,17 +4917,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="36"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="45"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="45"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -4753,12 +4939,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
-      <c r="B71" s="36" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="45"/>
+      <c r="B71" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -4766,17 +4952,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="45"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="45"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -4788,8 +4974,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="45"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -4801,8 +4987,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="35" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4816,12 +5002,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="35"/>
-      <c r="B76" s="41" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="45"/>
+      <c r="B76" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -4829,21 +5015,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="35"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="36"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="45"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
-      <c r="B78" s="36" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="45"/>
+      <c r="B78" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -4851,17 +5037,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="45"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="45"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -4873,8 +5059,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="45"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -4886,8 +5072,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="35" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4901,12 +5087,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="35"/>
-      <c r="B83" s="37" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="45"/>
+      <c r="B83" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -4914,17 +5100,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="45"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="35"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="45"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -4936,8 +5122,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="35"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="45"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -4949,29 +5135,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4988,12 +5180,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5012,20 +5198,20 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5034,8 +5220,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -5045,8 +5231,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -5054,8 +5240,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="53"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -5063,8 +5249,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A7" s="53"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -5072,7 +5258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5081,7 +5267,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5092,7 +5278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5103,7 +5289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5128,24 +5314,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
-    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5170,8 +5356,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5193,8 +5379,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -5214,8 +5400,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5227,8 +5413,8 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -5248,8 +5434,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5261,8 +5447,8 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -5280,8 +5466,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -5299,8 +5485,8 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -5318,8 +5504,8 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -5335,8 +5521,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -5352,8 +5538,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -5369,7 +5555,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5379,7 +5565,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5389,8 +5575,8 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -20633,8 +20819,8 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -20654,8 +20840,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -20675,8 +20861,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -20696,8 +20882,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -20715,8 +20901,8 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -20736,8 +20922,8 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -20757,8 +20943,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -20778,8 +20964,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -20799,8 +20985,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -20820,8 +21006,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -20841,8 +21027,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -20862,8 +21048,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -20883,8 +21069,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -20902,8 +21088,8 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -20923,8 +21109,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -20944,8 +21130,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -20965,8 +21151,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -20986,8 +21172,8 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -21007,8 +21193,8 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -21028,8 +21214,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -21049,8 +21235,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -21070,8 +21256,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -21091,8 +21277,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -21114,8 +21300,8 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -21137,8 +21323,8 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -21160,8 +21346,8 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -21183,8 +21369,8 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -21206,8 +21392,8 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -21227,8 +21413,8 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -21246,8 +21432,8 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -21265,8 +21451,8 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -21284,8 +21470,8 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -21301,8 +21487,8 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -21318,8 +21504,8 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -21335,8 +21521,8 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -21352,7 +21538,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21363,7 +21549,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21374,8 +21560,8 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="35" t="s">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -21393,8 +21579,8 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -21410,8 +21596,8 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -21431,8 +21617,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -21448,8 +21634,8 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -21465,8 +21651,8 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -21482,8 +21668,8 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -21499,8 +21685,8 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -21516,8 +21702,8 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -21535,8 +21721,8 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -21552,8 +21738,8 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -21571,8 +21757,8 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -21588,7 +21774,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -21599,7 +21785,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -21610,8 +21796,8 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A67" s="54" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -21633,8 +21819,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A68" s="54"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -21654,8 +21840,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="54"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -21671,7 +21857,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -21682,7 +21868,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -21693,8 +21879,8 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="44" t="s">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A72" s="54" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -21716,8 +21902,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A73" s="54"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -21737,8 +21923,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="54"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -21754,7 +21940,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -21765,7 +21951,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -21776,8 +21962,8 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="35" t="s">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A77" s="45" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -21799,8 +21985,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A78" s="45"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -21820,8 +22006,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="45"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -21833,8 +22019,8 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A80" s="45"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -21854,8 +22040,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A81" s="45"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -21875,8 +22061,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="35"/>
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="45"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -21888,8 +22074,8 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A83" s="35"/>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A83" s="45"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -21909,8 +22095,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="45"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -21926,7 +22112,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -21937,7 +22123,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -21948,8 +22134,8 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="35" t="s">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A87" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -21971,8 +22157,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="35"/>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A88" s="45"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -21992,8 +22178,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="35"/>
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="45"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -22005,8 +22191,8 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="35"/>
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A90" s="45"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -22026,8 +22212,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="35"/>
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="45"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -22039,8 +22225,8 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A92" s="35"/>
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A92" s="45"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -22060,8 +22246,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="35"/>
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="45"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -22077,7 +22263,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22088,7 +22274,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22099,8 +22285,8 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="35" t="s">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -22122,8 +22308,8 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A97" s="35"/>
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A97" s="45"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -22143,8 +22329,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="35"/>
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="45"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -22156,8 +22342,8 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="35"/>
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A99" s="45"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -22177,8 +22363,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="35"/>
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="45"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -22194,7 +22380,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22205,7 +22391,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22216,7 +22402,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22227,7 +22413,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22238,7 +22424,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22249,7 +22435,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22258,7 +22444,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22267,7 +22453,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22276,7 +22462,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22286,7 +22472,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22296,7 +22482,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22306,7 +22492,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22316,7 +22502,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22326,7 +22512,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22336,7 +22522,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22346,7 +22532,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22356,7 +22542,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22366,7 +22552,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22376,7 +22562,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22386,7 +22572,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22396,7 +22582,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22406,7 +22592,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22416,7 +22602,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22426,7 +22612,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22436,7 +22622,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22446,7 +22632,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22456,7 +22642,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22466,7 +22652,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22476,7 +22662,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22486,7 +22672,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22496,7 +22682,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -22506,7 +22692,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -22516,7 +22702,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -22526,7 +22712,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -22536,7 +22722,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -22546,7 +22732,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -22556,7 +22742,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -22566,7 +22752,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -22576,7 +22762,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -22586,7 +22772,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -22596,7 +22782,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -22606,7 +22792,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -22636,25 +22822,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.875" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -22684,8 +22870,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -22695,15 +22881,15 @@
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -22711,15 +22897,15 @@
         <v>13</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="46"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
@@ -22727,15 +22913,15 @@
         <v>10</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="46"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
       <c r="B5" s="21" t="s">
         <v>177</v>
       </c>
@@ -22743,15 +22929,15 @@
         <v>290</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="46"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -22761,7 +22947,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="46"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -22774,8 +22960,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="21" t="s">
         <v>183</v>
       </c>
@@ -22785,7 +22971,7 @@
       <c r="D7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="35" t="s">
         <v>340</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -22802,8 +22988,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>184</v>
       </c>
@@ -22813,7 +22999,7 @@
       <c r="D8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -22830,8 +23016,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
       <c r="B9" s="21" t="s">
         <v>185</v>
       </c>
@@ -22841,7 +23027,7 @@
       <c r="D9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -22858,8 +23044,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
       <c r="B10" s="21" t="s">
         <v>186</v>
       </c>
@@ -22867,7 +23053,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="46"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -22880,8 +23066,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
       <c r="B11" s="21" t="s">
         <v>187</v>
       </c>
@@ -22891,7 +23077,7 @@
       <c r="D11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="35" t="s">
         <v>316</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -22908,8 +23094,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="21" t="s">
         <v>188</v>
       </c>
@@ -22919,7 +23105,7 @@
       <c r="D12" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="35" t="s">
         <v>341</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -22936,8 +23122,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
       <c r="B13" s="21" t="s">
         <v>189</v>
       </c>
@@ -22947,7 +23133,7 @@
       <c r="D13" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="35" t="s">
         <v>341</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -22964,8 +23150,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
       <c r="B14" s="21" t="s">
         <v>190</v>
       </c>
@@ -22975,7 +23161,7 @@
       <c r="D14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -22992,8 +23178,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
       <c r="B15" s="21" t="s">
         <v>191</v>
       </c>
@@ -23003,7 +23189,7 @@
       <c r="D15" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -23020,8 +23206,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
       <c r="B16" s="21" t="s">
         <v>192</v>
       </c>
@@ -23031,7 +23217,7 @@
       <c r="D16" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="35" t="s">
         <v>316</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -23048,8 +23234,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
       <c r="B17" s="21" t="s">
         <v>193</v>
       </c>
@@ -23059,7 +23245,7 @@
       <c r="D17" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="35" t="s">
         <v>316</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -23076,8 +23262,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
       <c r="B18" s="21" t="s">
         <v>194</v>
       </c>
@@ -23087,7 +23273,7 @@
       <c r="D18" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="35" t="s">
         <v>312</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -23104,8 +23290,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
       <c r="B19" s="21" t="s">
         <v>195</v>
       </c>
@@ -23124,8 +23310,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
       <c r="B20" s="21" t="s">
         <v>196</v>
       </c>
@@ -23135,7 +23321,7 @@
       <c r="D20" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="35" t="s">
         <v>342</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -23152,8 +23338,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
       <c r="B21" s="21" t="s">
         <v>197</v>
       </c>
@@ -23163,7 +23349,7 @@
       <c r="D21" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="35" t="s">
         <v>347</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -23180,8 +23366,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
       <c r="B22" s="21" t="s">
         <v>198</v>
       </c>
@@ -23191,7 +23377,7 @@
       <c r="D22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -23208,8 +23394,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
       <c r="B23" s="21" t="s">
         <v>199</v>
       </c>
@@ -23219,7 +23405,7 @@
       <c r="D23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -23236,8 +23422,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
       <c r="B24" s="21" t="s">
         <v>200</v>
       </c>
@@ -23247,7 +23433,7 @@
       <c r="D24" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -23264,8 +23450,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
       <c r="B25" s="21" t="s">
         <v>201</v>
       </c>
@@ -23275,7 +23461,7 @@
       <c r="D25" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="35" t="s">
         <v>347</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -23292,8 +23478,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
       <c r="B26" s="21" t="s">
         <v>202</v>
       </c>
@@ -23303,7 +23489,7 @@
       <c r="D26" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="35" t="s">
         <v>342</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -23320,8 +23506,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
       <c r="B27" s="21" t="s">
         <v>203</v>
       </c>
@@ -23331,7 +23517,7 @@
       <c r="D27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="35" t="s">
         <v>316</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -23348,8 +23534,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
       <c r="B28" s="21" t="s">
         <v>204</v>
       </c>
@@ -23359,7 +23545,7 @@
       <c r="D28" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="35" t="s">
         <v>347</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -23376,8 +23562,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
       </c>
@@ -23387,13 +23573,13 @@
       <c r="D29" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="35" t="s">
         <v>301</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="36" t="s">
         <v>356</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -23406,8 +23592,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
       </c>
@@ -23417,13 +23603,13 @@
       <c r="D30" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="35" t="s">
         <v>301</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="36" t="s">
         <v>101</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -23436,8 +23622,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
       </c>
@@ -23447,13 +23633,13 @@
       <c r="D31" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="35" t="s">
         <v>301</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -23466,8 +23652,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
       </c>
@@ -23477,13 +23663,13 @@
       <c r="D32" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="35" t="s">
         <v>306</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="36" t="s">
         <v>356</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -23496,8 +23682,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
       </c>
@@ -23507,13 +23693,13 @@
       <c r="D33" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="35" t="s">
         <v>307</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -23526,8 +23712,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
       </c>
@@ -23537,13 +23723,13 @@
       <c r="D34" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="36" t="s">
         <v>356</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -23556,8 +23742,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
       </c>
@@ -23567,13 +23753,13 @@
       <c r="D35" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="35" t="s">
         <v>310</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -23586,8 +23772,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
       </c>
@@ -23597,13 +23783,13 @@
       <c r="D36" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="36" t="s">
         <v>356</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -23616,8 +23802,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
       </c>
@@ -23627,13 +23813,13 @@
       <c r="D37" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G37" s="47" t="s">
+      <c r="G37" s="36" t="s">
         <v>101</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -23646,8 +23832,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -23657,13 +23843,13 @@
       <c r="D38" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="35" t="s">
         <v>310</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -23676,8 +23862,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -23687,13 +23873,13 @@
       <c r="D39" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G39" s="36" t="s">
         <v>356</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -23706,8 +23892,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -23717,13 +23903,13 @@
       <c r="D40" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="35" t="s">
         <v>310</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -23736,8 +23922,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
       <c r="B41" s="21" t="s">
         <v>206</v>
       </c>
@@ -23747,7 +23933,7 @@
       <c r="D41" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="35" t="s">
         <v>316</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -23764,8 +23950,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
         <v>175</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -23775,7 +23961,7 @@
         <v>89</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="46"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -23786,8 +23972,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
       <c r="B43" s="21" t="s">
         <v>211</v>
       </c>
@@ -23795,15 +23981,15 @@
         <v>91</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
       <c r="B44" s="21" t="s">
         <v>189</v>
       </c>
@@ -23811,15 +23997,15 @@
         <v>92</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="46"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
       <c r="B45" s="21" t="s">
         <v>199</v>
       </c>
@@ -23827,15 +24013,15 @@
         <v>93</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="46"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
       <c r="B46" s="21" t="s">
         <v>212</v>
       </c>
@@ -23843,15 +24029,15 @@
         <v>94</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="46"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
       <c r="B47" s="21" t="s">
         <v>202</v>
       </c>
@@ -23859,15 +24045,15 @@
         <v>95</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="46"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
       <c r="B48" s="21" t="s">
         <v>197</v>
       </c>
@@ -23875,15 +24061,15 @@
         <v>96</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="46"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
       <c r="B49" s="21" t="s">
         <v>204</v>
       </c>
@@ -23891,15 +24077,15 @@
         <v>97</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="46"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="35" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="45" t="s">
         <v>176</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -23911,13 +24097,13 @@
       <c r="D50" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G50" s="47" t="s">
+      <c r="G50" s="36" t="s">
         <v>295</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -23930,8 +24116,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
       <c r="B51" s="21" t="s">
         <v>216</v>
       </c>
@@ -23941,13 +24127,13 @@
       <c r="D51" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="35" t="s">
         <v>312</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="36" t="s">
         <v>295</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -23960,8 +24146,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="35" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="45" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -23973,13 +24159,13 @@
       <c r="D52" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="36" t="s">
         <v>103</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -23992,8 +24178,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
       <c r="B53" s="21" t="s">
         <v>215</v>
       </c>
@@ -24003,13 +24189,13 @@
       <c r="D53" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="36" t="s">
         <v>103</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -24022,8 +24208,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="35" t="s">
+    <row r="54" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
         <v>169</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -24032,90 +24218,150 @@
       <c r="C54" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+      <c r="I54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J54" s="64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
       <c r="B55" s="21" t="s">
         <v>217</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H55" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
+      <c r="I55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
       <c r="B56" s="21" t="s">
         <v>220</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
+      <c r="I56" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
       <c r="B57" s="21" t="s">
         <v>219</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+      <c r="I57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
       <c r="B58" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H58" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
+      <c r="I58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A59" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="21" t="s">
@@ -24127,7 +24373,7 @@
       <c r="D59" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -24144,8 +24390,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
       <c r="B60" s="21" t="s">
         <v>217</v>
       </c>
@@ -24155,7 +24401,7 @@
       <c r="D60" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="35" t="s">
         <v>317</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -24172,8 +24418,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
       <c r="B61" s="21" t="s">
         <v>219</v>
       </c>
@@ -24183,7 +24429,7 @@
       <c r="D61" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="35" t="s">
         <v>317</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -24200,8 +24446,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
       <c r="B62" s="21" t="s">
         <v>215</v>
       </c>
@@ -24211,7 +24457,7 @@
       <c r="D62" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="35" t="s">
         <v>306</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -24228,8 +24474,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="35" t="s">
+    <row r="63" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A63" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -24241,7 +24487,7 @@
       <c r="D63" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -24258,8 +24504,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
       <c r="B64" s="21" t="s">
         <v>189</v>
       </c>
@@ -24269,7 +24515,7 @@
       <c r="D64" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -24286,8 +24532,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
       <c r="B65" s="21" t="s">
         <v>218</v>
       </c>
@@ -24295,7 +24541,7 @@
         <v>19</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="46"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
@@ -24326,18 +24572,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24348,7 +24594,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24359,8 +24605,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -24370,8 +24616,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -24379,7 +24625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -24390,7 +24636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -24401,7 +24647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -24412,7 +24658,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -24423,7 +24669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -24434,7 +24680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -24445,8 +24691,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24456,8 +24702,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -24465,7 +24711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -24476,7 +24722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -24487,7 +24733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -24498,62 +24744,62 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+    <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+    <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="50" t="s">
+    <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="50" t="s">
+    <row r="29" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="50" t="s">
+    <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="50" t="s">
+    <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="B31" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -24572,587 +24818,761 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC286DCB-635F-40D3-A45F-FA0C410354BF}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="44" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="36" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="36" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="36" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="36" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="36" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O11" s="47" t="s">
+      <c r="O11" s="36" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O12" s="47" t="s">
+      <c r="O12" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O13" s="47" t="s">
+      <c r="O13" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N14" s="47" t="s">
+      <c r="N14" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="O14" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="36" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="47" t="s">
+      <c r="O16" s="36" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N17" s="47" t="s">
+      <c r="N17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="47" t="s">
+      <c r="O17" s="36" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N18" s="47" t="s">
+      <c r="N18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="36" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N22" s="47" t="s">
+      <c r="N22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="36" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="47" t="s">
+      <c r="M23" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N23" s="47" t="s">
+      <c r="N23" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="36" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -25165,17 +25585,17 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N24" s="47" t="s">
+      <c r="N24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -25188,17 +25608,17 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="47" t="s">
+      <c r="M25" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="36" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -25211,17 +25631,17 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="36" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -25234,17 +25654,17 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="47" t="s">
+      <c r="M27" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="O27" s="36" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -25257,17 +25677,17 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N28" s="47" t="s">
+      <c r="N28" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O28" s="47" t="s">
+      <c r="O28" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -25280,17 +25700,17 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="47" t="s">
+      <c r="M29" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N29" s="47" t="s">
+      <c r="N29" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="47" t="s">
+      <c r="O29" s="36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -25303,17 +25723,17 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="O30" s="47" t="s">
+      <c r="O30" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -25326,17 +25746,17 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="47" t="s">
+      <c r="M31" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O31" s="47" t="s">
+      <c r="O31" s="36" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -25349,17 +25769,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="47" t="s">
+      <c r="M32" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O32" s="47" t="s">
+      <c r="O32" s="36" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -25372,17 +25792,17 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N33" s="47" t="s">
+      <c r="N33" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O33" s="47" t="s">
+      <c r="O33" s="36" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -25395,17 +25815,17 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="47" t="s">
+      <c r="M34" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N34" s="47" t="s">
+      <c r="N34" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O34" s="47" t="s">
+      <c r="O34" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -25418,17 +25838,17 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="47" t="s">
+      <c r="M35" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N35" s="47" t="s">
+      <c r="N35" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="O35" s="36" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -25441,17 +25861,17 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="47" t="s">
+      <c r="M36" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N36" s="47" t="s">
+      <c r="N36" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O36" s="47" t="s">
+      <c r="O36" s="36" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -25464,17 +25884,17 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O37" s="47" t="s">
+      <c r="O37" s="36" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -25487,17 +25907,17 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="47" t="s">
+      <c r="M38" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N38" s="47" t="s">
+      <c r="N38" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O38" s="47" t="s">
+      <c r="O38" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -25510,17 +25930,17 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N39" s="47" t="s">
+      <c r="N39" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O39" s="47" t="s">
+      <c r="O39" s="36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -25533,17 +25953,17 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="47" t="s">
+      <c r="M40" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N40" s="47" t="s">
+      <c r="N40" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O40" s="47" t="s">
+      <c r="O40" s="36" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25556,17 +25976,17 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N41" s="47" t="s">
+      <c r="N41" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O41" s="47" t="s">
+      <c r="O41" s="36" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25579,17 +25999,17 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="47" t="s">
+      <c r="M42" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N42" s="47" t="s">
+      <c r="N42" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O42" s="47" t="s">
+      <c r="O42" s="36" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -25602,17 +26022,17 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="47" t="s">
+      <c r="M43" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N43" s="47" t="s">
+      <c r="N43" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O43" s="47" t="s">
+      <c r="O43" s="36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -25625,17 +26045,17 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N44" s="47" t="s">
+      <c r="N44" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O44" s="47" t="s">
+      <c r="O44" s="36" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -25648,17 +26068,17 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="47" t="s">
+      <c r="M45" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N45" s="47" t="s">
+      <c r="N45" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O45" s="47" t="s">
+      <c r="O45" s="36" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -25671,17 +26091,17 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="47" t="s">
+      <c r="M46" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N46" s="47" t="s">
+      <c r="N46" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O46" s="47" t="s">
+      <c r="O46" s="36" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -25694,17 +26114,17 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="47" t="s">
+      <c r="M47" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O47" s="47" t="s">
+      <c r="O47" s="36" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -25717,17 +26137,17 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="47" t="s">
+      <c r="M48" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N48" s="47" t="s">
+      <c r="N48" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O48" s="47" t="s">
+      <c r="O48" s="36" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -25740,17 +26160,17 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="47" t="s">
+      <c r="M49" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N49" s="47" t="s">
+      <c r="N49" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O49" s="47" t="s">
+      <c r="O49" s="36" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -25763,17 +26183,17 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="47" t="s">
+      <c r="M50" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="N50" s="47" t="s">
+      <c r="N50" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O50" s="47" t="s">
+      <c r="O50" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -25790,7 +26210,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -25807,7 +26227,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -25824,7 +26244,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -25841,7 +26261,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -25858,7 +26278,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -25875,7 +26295,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -25892,7 +26312,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -25909,7 +26329,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -25926,7 +26346,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -25943,7 +26363,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -25960,7 +26380,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -25977,7 +26397,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -25994,7 +26414,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -26011,7 +26431,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -26028,7 +26448,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -26045,7 +26465,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -26062,7 +26482,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -26079,7 +26499,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -26096,7 +26516,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -26113,7 +26533,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -26130,7 +26550,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -26147,7 +26567,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -26164,7 +26584,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -26181,7 +26601,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -26198,7 +26618,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -26215,7 +26635,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -26232,7 +26652,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -26249,7 +26669,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -26266,7 +26686,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -26283,7 +26703,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -26300,7 +26720,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -26317,7 +26737,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -26334,7 +26754,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -26351,7 +26771,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -26368,7 +26788,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -26385,7 +26805,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -26402,7 +26822,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -26419,7 +26839,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -26436,7 +26856,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -26453,7 +26873,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -26470,7 +26890,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -26487,7 +26907,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -26504,7 +26924,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -26521,7 +26941,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -26538,7 +26958,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -26555,7 +26975,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -26572,7 +26992,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -26589,7 +27009,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -26606,7 +27026,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -26623,7 +27043,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -26640,7 +27060,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -26657,7 +27077,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -26674,7 +27094,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -26691,7 +27111,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -26708,7 +27128,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -26725,7 +27145,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -26742,7 +27162,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -26759,7 +27179,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -26776,7 +27196,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -26793,7 +27213,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -26810,7 +27230,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -26827,7 +27247,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -26844,7 +27264,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -26861,7 +27281,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -26878,7 +27298,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -26895,7 +27315,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -26912,7 +27332,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -26929,7 +27349,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -26946,7 +27366,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -26963,7 +27383,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -26980,7 +27400,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -26997,7 +27417,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -27014,7 +27434,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -27031,7 +27451,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -27048,7 +27468,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -27065,7 +27485,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -27082,7 +27502,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -27099,7 +27519,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -27116,7 +27536,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -27133,7 +27553,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -27150,7 +27570,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -27167,7 +27587,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -27184,7 +27604,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -27201,7 +27621,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -27218,7 +27638,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -27235,7 +27655,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -27252,7 +27672,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -27269,7 +27689,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -27286,7 +27706,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -27303,7 +27723,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -27320,7 +27740,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -27337,7 +27757,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -27354,7 +27774,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -27371,7 +27791,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
